--- a/__ output (8-10-2020)/_last/[ ! ] - Chi-Test - b1(1-Male ; 2-X) & b5(0-X ; 1-Urban).xlsx
+++ b/__ output (8-10-2020)/_last/[ ! ] - Chi-Test - b1(1-Male ; 2-X) & b5(0-X ; 1-Urban).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Candy\Documents\GitHub\OOTO Miner Python v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Candy\Documents\GitHub\OOTO Miner Python v2\__ output (8-10-2020)\_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D4E16-02C4-4548-9BFF-A7B3B3234424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445854FF-E14B-4CD0-B11B-DFFE8EAB9A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-228" yWindow="576" windowWidth="23052" windowHeight="6876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1284" yWindow="2976" windowWidth="23040" windowHeight="6876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1785,12 +1785,13 @@
   <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
@@ -1991,7 +1992,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G5">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" ref="G5:G36" si="0">IF(C:C&gt;F:F,1,0)</f>
         <v>1</v>
       </c>
       <c r="H5">
@@ -2039,7 +2040,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G6">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6">
@@ -2087,7 +2088,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G7">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7">
@@ -2135,7 +2136,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G8">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8">
@@ -2183,7 +2184,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G9">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
@@ -2231,7 +2232,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G10">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
@@ -2279,7 +2280,7 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="G11">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -2327,7 +2328,7 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="G12">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
@@ -2375,7 +2376,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G13">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13">
@@ -2423,7 +2424,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G14">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
@@ -2471,7 +2472,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G15">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15">
@@ -2519,7 +2520,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G16">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
@@ -2567,7 +2568,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G17">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17">
@@ -2615,7 +2616,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G18">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
@@ -2663,7 +2664,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G19">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19">
@@ -2711,7 +2712,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G20">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20">
@@ -2759,7 +2760,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G21">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21">
@@ -2807,7 +2808,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G22">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22">
@@ -2855,7 +2856,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G23">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
@@ -2903,7 +2904,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G24">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
@@ -2951,7 +2952,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G25">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25">
@@ -2999,7 +3000,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G26">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26">
@@ -3047,7 +3048,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G27">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27">
@@ -3095,7 +3096,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G28">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28">
@@ -3143,7 +3144,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G29">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29">
@@ -3191,7 +3192,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G30">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30">
@@ -3239,7 +3240,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G31">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31">
@@ -3287,7 +3288,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G32">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32">
@@ -3335,7 +3336,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G33">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33">
@@ -3383,7 +3384,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G34">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34">
@@ -3431,7 +3432,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G35">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35">
@@ -3479,7 +3480,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G36">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36">
@@ -3527,7 +3528,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G37">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" ref="G37:G68" si="1">IF(C:C&gt;F:F,1,0)</f>
         <v>0</v>
       </c>
       <c r="H37">
@@ -3575,7 +3576,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G38">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38">
@@ -3623,7 +3624,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G39">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39">
@@ -3671,7 +3672,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G40">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40">
@@ -3719,7 +3720,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G41">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41">
@@ -3767,7 +3768,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G42">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42">
@@ -3815,7 +3816,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G43">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -3863,7 +3864,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G44">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44">
@@ -3911,7 +3912,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G45">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45">
@@ -3959,7 +3960,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G46">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46">
@@ -4007,7 +4008,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G47">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47">
@@ -4055,7 +4056,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G48">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48">
@@ -4103,7 +4104,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G49">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49">
@@ -4151,7 +4152,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G50">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50">
@@ -4199,7 +4200,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G51">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51">
@@ -4247,7 +4248,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G52">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52">
@@ -4295,7 +4296,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G53">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53">
@@ -4343,7 +4344,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G54">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54">
@@ -4391,7 +4392,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G55">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55">
@@ -4439,7 +4440,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G56">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56">
@@ -4487,7 +4488,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G57">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57">
@@ -4535,7 +4536,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G58">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58">
@@ -4583,7 +4584,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G59">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59">
@@ -4631,7 +4632,7 @@
         <v>6.6349999999999998</v>
       </c>
       <c r="G60">
-        <f>IF(C:C&gt;F:F,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H60">
